--- a/画面設計総編集/出荷予定一覧.xlsx
+++ b/画面設計総編集/出荷予定一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8099\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8099\Desktop\system-devel\画面設計総編集\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1233,6 +1233,138 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1240,138 +1372,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1397,19 +1397,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>663389</xdr:colOff>
+      <xdr:colOff>653143</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>173009</xdr:rowOff>
+      <xdr:rowOff>50515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1428,8 +1428,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="672353" y="1398494"/>
-          <a:ext cx="6804212" cy="5067739"/>
+          <a:off x="685799" y="1219200"/>
+          <a:ext cx="6792687" cy="5090601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1736,93 +1736,93 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="66" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="72" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="78" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="81" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="83"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="66" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="88" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="78" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="94" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="96"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1833,15 +1833,15 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="59"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="89"/>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -1869,17 +1869,17 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="53" t="s">
+      <c r="J8" s="91"/>
+      <c r="K8" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="93"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1907,17 +1907,17 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="53" t="s">
+      <c r="J10" s="91"/>
+      <c r="K10" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="93"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -1930,11 +1930,11 @@
       <c r="H11" s="6"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="93"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -1945,17 +1945,17 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="53" t="s">
+      <c r="J12" s="91"/>
+      <c r="K12" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="93"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1968,11 +1968,11 @@
       <c r="H13" s="6"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="93"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -1983,17 +1983,17 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="53" t="s">
+      <c r="J14" s="91"/>
+      <c r="K14" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="93"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -2006,11 +2006,11 @@
       <c r="H15" s="6"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="93"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -2021,17 +2021,17 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="53">
+      <c r="J16" s="91"/>
+      <c r="K16" s="92">
         <v>9</v>
       </c>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="93"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -2044,11 +2044,11 @@
       <c r="H17" s="6"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="93"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -2059,17 +2059,17 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="53" t="s">
+      <c r="J18" s="91"/>
+      <c r="K18" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="93"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -2097,15 +2097,15 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="96"/>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
@@ -3086,28 +3086,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="I16:J16"/>
@@ -3115,6 +3093,28 @@
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
